--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B098D-982F-421A-8590-44ACC6B26E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2CB42E-DB13-4037-A407-74C53EBF5F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2CB42E-DB13-4037-A407-74C53EBF5F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB04EA-4158-4DAE-9C71-C4DE168C39C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>/TRAITEMENT RETOUR FACT TIERS/RECLAMATION TIERS</t>
+  </si>
+  <si>
+    <t>AUDIO</t>
+  </si>
+  <si>
+    <t>PEC</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,8 +804,8 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -836,8 +842,8 @@
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
+      <c r="D3" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB04EA-4158-4DAE-9C71-C4DE168C39C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -334,7 +333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +392,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -406,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -419,6 +430,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,12 +747,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +787,7 @@
       <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -848,7 +863,7 @@
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1152,7 +1167,7 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1342,7 +1357,7 @@
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1380,7 +1395,7 @@
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="15" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2562,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F42747-A4A4-457F-94C6-5CD466A789E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB04EA-4158-4DAE-9C71-C4DE168C39C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F509CD93-AE65-48F6-A5C9-1DA345FE7B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -325,10 +325,10 @@
     <t>/TRAITEMENT RETOUR FACT TIERS/RECLAMATION TIERS</t>
   </si>
   <si>
-    <t>AUDIO</t>
-  </si>
-  <si>
-    <t>PEC</t>
+    <t>PEC Dentaires</t>
+  </si>
+  <si>
+    <t>PEC AUDIO</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
     <col min="1" max="1" width="42" style="7" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" customWidth="1"/>
     <col min="3" max="3" width="54.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="27" style="4" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F509CD93-AE65-48F6-A5C9-1DA345FE7B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59303800-994D-4B8A-9E30-EB8A4ABF009A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +749,7 @@
     <col min="5" max="5" width="27" style="4" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="58.7109375" customWidth="1"/>
     <col min="10" max="10" width="48" customWidth="1"/>
     <col min="11" max="11" width="61.85546875" customWidth="1"/>
@@ -1045,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>81</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59303800-994D-4B8A-9E30-EB8A4ABF009A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D6933D-5960-4049-B77E-4B377A64FF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,373 +1533,438 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D6933D-5960-4049-B77E-4B377A64FF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A16C22-1E6A-416E-9CD4-0A4CC15704BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="129">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -329,6 +329,90 @@
   </si>
   <si>
     <t>PEC AUDIO</t>
+  </si>
+  <si>
+    <t>CBTP</t>
+  </si>
+  <si>
+    <t>Etat fin de traitement gestionnaire N2</t>
+  </si>
+  <si>
+    <t>traaotdcbtp</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT RETOUR_OTD_N2</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>trretourotdn2cbtp</t>
+  </si>
+  <si>
+    <t>trretourotdn2client</t>
+  </si>
+  <si>
+    <t>trtrecapio</t>
+  </si>
+  <si>
+    <t>CAPIO</t>
+  </si>
+  <si>
+    <t>PRIVE</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_SE/RECLAMATION SE/ALMERYS</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_SE/RECLAMATION SE/ALMERYS/</t>
+  </si>
+  <si>
+    <t>Reclamation SE</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_SE/RECLAMATION SE/CBTP/</t>
+  </si>
+  <si>
+    <t>trse</t>
+  </si>
+  <si>
+    <t>/RETOUR_AGLAE_AUTOQUERY/</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_SE/RECLAMATION SE/CBTP</t>
+  </si>
+  <si>
+    <t>/RETOUR_AGLAE_AUTOQUERY</t>
+  </si>
+  <si>
+    <t>ANNULATION PEC</t>
+  </si>
+  <si>
+    <t>Feuil1</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>DATE DE RADIATION</t>
+  </si>
+  <si>
+    <t>LEVEE DOUBLON</t>
+  </si>
+  <si>
+    <t>trautoqueryannulation</t>
+  </si>
+  <si>
+    <t>trautoqueryradiation</t>
+  </si>
+  <si>
+    <t>trautoquerydoublon</t>
+  </si>
+  <si>
+    <t>trldrn2almerys</t>
   </si>
 </sst>
 </file>
@@ -350,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +477,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -406,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -419,6 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +828,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,14 +2721,407 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F42747-A4A4-457F-94C6-5CD466A789E8}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" customWidth="1"/>
+    <col min="9" max="9" width="61.42578125" customWidth="1"/>
+    <col min="10" max="10" width="70.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A16C22-1E6A-416E-9CD4-0A4CC15704BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2152454-0BCF-40D4-8C46-5A58C02DECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="136">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -34,15 +34,9 @@
     <t>.xlsx</t>
   </si>
   <si>
-    <t>Opérateur</t>
-  </si>
-  <si>
     <t>.xlsm</t>
   </si>
   <si>
-    <t>OPERATEUR SSTT</t>
-  </si>
-  <si>
     <t>.xlsb</t>
   </si>
   <si>
@@ -413,6 +407,33 @@
   </si>
   <si>
     <t>trldrn2almerys</t>
+  </si>
+  <si>
+    <t>Etat fin de traitement gestionnaire</t>
+  </si>
+  <si>
+    <t>AUDIO</t>
+  </si>
+  <si>
+    <t>DENTAIRE</t>
+  </si>
+  <si>
+    <t>OPTIQUE</t>
+  </si>
+  <si>
+    <t>ANALYSE</t>
+  </si>
+  <si>
+    <t>PEC HOSPI</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_OPTIQUE/</t>
+  </si>
+  <si>
+    <t>PEC OPTIQUE</t>
+  </si>
+  <si>
+    <t>trpecoptique</t>
   </si>
 </sst>
 </file>
@@ -434,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +504,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -496,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -511,6 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,21 +854,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="7" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="58.7109375" customWidth="1"/>
     <col min="10" max="10" width="48" customWidth="1"/>
@@ -853,37 +881,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="7">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H1" s="7">
         <v>0</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -891,37 +919,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -929,303 +957,303 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
+      <c r="D10" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1233,75 +1261,75 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
         <v>2</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
+      <c r="D12" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1309,37 +1337,37 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1347,37 +1375,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
+      <c r="D14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1385,303 +1413,107 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2015,6 +1847,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
@@ -2710,6 +2543,11 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2721,10 +2559,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F42747-A4A4-457F-94C6-5CD466A789E8}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2571,8 @@
     <col min="2" max="2" width="64.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="61.42578125" customWidth="1"/>
     <col min="10" max="10" width="70.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" style="13" customWidth="1"/>
@@ -2745,37 +2584,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" s="7">
         <v>0</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2783,37 +2622,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2821,37 +2660,37 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="K3" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2859,37 +2698,37 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2897,37 +2736,37 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2935,37 +2774,37 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2973,37 +2812,37 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3011,37 +2850,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3049,37 +2888,37 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="J9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3087,37 +2926,265 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="J10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="D11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L14" s="10" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2152454-0BCF-40D4-8C46-5A58C02DECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5536DC0-A8B0-4412-BCA1-9B8D5B18BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="137">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>trpecoptique</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_OPTIQUE</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>5</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5536DC0-A8B0-4412-BCA1-9B8D5B18BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD44486-8779-46A3-A52A-E4168D748BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2564,8 +2564,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD44486-8779-46A3-A52A-E4168D748BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B357D-B87E-41EB-A6BF-4D87E8BAFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -859,8 +859,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,8 +2564,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD44486-8779-46A3-A52A-E4168D748BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,7 +441,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +512,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -526,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -542,6 +547,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
@@ -2560,12 +2567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F42747-A4A4-457F-94C6-5CD466A789E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,7 +2593,7 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -2662,7 +2669,7 @@
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2700,7 +2707,7 @@
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2738,7 +2745,7 @@
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2814,7 +2821,7 @@
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="1" t="s">

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E34B29A-6DC9-4D15-8DB3-F5935F00581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="139">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -436,12 +437,18 @@
   </si>
   <si>
     <t>/TRAITEMENT_RETOUR_OPTIQUE</t>
+  </si>
+  <si>
+    <t>Dentaire</t>
+  </si>
+  <si>
+    <t>N2 INDU HTP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -862,12 +869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +884,7 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="58.7109375" customWidth="1"/>
@@ -1067,7 +1074,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>72</v>
@@ -1201,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>100</v>
@@ -2567,12 +2574,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E34B29A-6DC9-4D15-8DB3-F5935F00581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5812D9C-30A3-495E-9D39-9130E5720CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="140">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>N2 INDU HTP</t>
+  </si>
+  <si>
+    <t>Optique</t>
   </si>
 </sst>
 </file>
@@ -873,8 +876,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,13 +1039,13 @@
         <v>136</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2578,8 +2581,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5812D9C-30A3-495E-9D39-9130E5720CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA8498-947D-48EE-B9C0-3B8FFDC44750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -876,8 +876,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2581,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA8498-947D-48EE-B9C0-3B8FFDC44750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5677A9-1D91-432B-866A-D41C80FC0915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>/TRAITEMENT_RETOUR_OTD_N2/</t>
   </si>
   <si>
-    <t>OTD_ALMERYS SATD</t>
-  </si>
-  <si>
     <t>/TRAITEMENT_RETOUR_FACT_TIERS/RECLAMATION TIERS/</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>Optique</t>
+  </si>
+  <si>
+    <t>OTD_ALMERYS</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -907,28 +907,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="7">
         <v>0</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>12</v>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -998,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>5</v>
@@ -1015,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>9</v>
@@ -1036,16 +1036,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1059,28 +1059,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
@@ -1097,31 +1097,31 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>23</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1188,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
@@ -1211,28 +1211,28 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
@@ -1249,28 +1249,28 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>28</v>
@@ -1287,28 +1287,28 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>10</v>
@@ -1325,31 +1325,31 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1363,28 +1363,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>37</v>
@@ -1401,28 +1401,28 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>7</v>
@@ -1439,28 +1439,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
@@ -2581,8 +2581,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,9 +2594,9 @@
     <col min="7" max="7" width="39.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="61.42578125" customWidth="1"/>
-    <col min="10" max="10" width="70.85546875" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="13"/>
+    <col min="10" max="10" width="45.42578125" customWidth="1"/>
+    <col min="11" max="11" width="53.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2610,31 +2610,31 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="7">
         <v>0</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2648,31 +2648,31 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="L2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2686,31 +2686,31 @@
         <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="L3" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,28 +2724,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
@@ -2762,28 +2762,28 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>42</v>
@@ -2794,34 +2794,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>42</v>
@@ -2832,34 +2832,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>42</v>
@@ -2870,34 +2870,34 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>42</v>
@@ -2908,34 +2908,34 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>42</v>
@@ -2946,34 +2946,34 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>42</v>
@@ -2983,73 +2983,73 @@
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>40</v>
@@ -3066,28 +3066,28 @@
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>42</v>
@@ -3104,28 +3104,28 @@
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="10">
         <v>0</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>44</v>
@@ -3142,31 +3142,31 @@
         <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="10">
         <v>0</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="L15" s="10" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3174,37 +3174,37 @@
         <v>0</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="L16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5677A9-1D91-432B-866A-D41C80FC0915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499AD322-51DF-4A47-A79D-F070CFBC0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="139">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>trretourotdn2cbtp</t>
-  </si>
-  <si>
-    <t>trretourotdn2client</t>
   </si>
   <si>
     <t>trtrecapio</t>
@@ -876,7 +873,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1015,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>9</v>
@@ -1036,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1077,7 +1074,7 @@
         <v>70</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>71</v>
@@ -1097,16 +1094,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1173,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1211,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>99</v>
@@ -1363,16 +1360,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1401,16 +1398,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1439,16 +1436,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2581,8 +2578,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,7 +2689,7 @@
         <v>99</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>99</v>
@@ -2730,7 +2727,7 @@
         <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>99</v>
@@ -2742,7 +2739,7 @@
         <v>86</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>87</v>
@@ -2768,7 +2765,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>99</v>
@@ -2780,7 +2777,7 @@
         <v>80</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>89</v>
@@ -2794,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -2806,7 +2803,7 @@
         <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>99</v>
@@ -2815,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>89</v>
@@ -2832,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -2844,7 +2841,7 @@
         <v>99</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>99</v>
@@ -2853,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>89</v>
@@ -2870,31 +2867,31 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>89</v>
@@ -2908,31 +2905,31 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>89</v>
@@ -2946,31 +2943,31 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>89</v>
@@ -3160,13 +3157,13 @@
         <v>92</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>93</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499AD322-51DF-4A47-A79D-F070CFBC0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3C3A1-B70C-450F-905E-5AB075E15D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2579,7 +2579,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3C3A1-B70C-450F-905E-5AB075E15D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3DDB19-026E-4C1F-9994-874F207B7F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -873,8 +873,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,7 +2578,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D4C88A-CCE9-4E68-A777-6C3D9D09E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF32309-74C9-4C9F-9848-1FC3673DACA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="138">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Facture Hospi</t>
-  </si>
-  <si>
-    <t>TRE</t>
   </si>
   <si>
     <t>TRAME TRAITE RETOUR CENTRE DE SOINS SE</t>
@@ -464,42 +461,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -514,19 +481,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,13 +802,13 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" style="4" customWidth="1"/>
+    <col min="1" max="1" width="42" style="2" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
@@ -865,46 +823,46 @@
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="4">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -914,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -929,96 +887,96 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>135</v>
+      <c r="J4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1028,35 +986,35 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1066,35 +1024,35 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1104,7 +1062,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -1119,20 +1077,20 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1142,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1157,20 +1115,20 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1180,35 +1138,35 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1218,35 +1176,35 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1256,35 +1214,35 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1294,35 +1252,35 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1332,35 +1290,35 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1370,35 +1328,35 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1408,28 +1366,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
@@ -1447,629 +1405,631 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="64.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="61.42578125" customWidth="1"/>
-    <col min="10" max="10" width="45.42578125" customWidth="1"/>
-    <col min="11" max="11" width="53.85546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="39.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="61.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="45.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="L2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="4">
-        <v>0</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>96</v>
+      <c r="L3" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>105</v>
+      <c r="I5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>108</v>
+      <c r="I6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>109</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>108</v>
+      <c r="I7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>116</v>
+      <c r="F8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>116</v>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>118</v>
+      <c r="I10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="K14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="1" t="s">
         <v>56</v>
       </c>
     </row>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF32309-74C9-4C9F-9848-1FC3673DACA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7659E42-5DE6-4EC9-8093-81C4B0A59892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="139">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -229,18 +229,6 @@
     <t>/TRAITEMENT RETOUR AUDIO</t>
   </si>
   <si>
-    <t>/TRAITEMENT_RETOUR_DENT</t>
-  </si>
-  <si>
-    <t>/TRAITEMENT RETOUR DENT</t>
-  </si>
-  <si>
-    <t>/TRAITEMENT_RETOUR_FACT_DENT</t>
-  </si>
-  <si>
-    <t>/TRAITEMENT RETOUR FACT DENT</t>
-  </si>
-  <si>
     <t>/TRAITEMENT_RETOUR_FACT_HOSPI/GTO</t>
   </si>
   <si>
@@ -440,6 +428,21 @@
   </si>
   <si>
     <t>/TRAITEMENT_RETOUR_FACT_STC</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_DENTAIRE</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT RETOUR DENTAIRE</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT RETOUR OPTIQUE</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_DENTAIRE</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT RETOUR FACT DENTAIRE</t>
   </si>
 </sst>
 </file>
@@ -461,12 +464,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -481,10 +490,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,8 +813,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,8 +827,8 @@
     <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="48" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="48" style="4" customWidth="1"/>
     <col min="11" max="11" width="61.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="48" style="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="1"/>
@@ -834,24 +845,24 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -872,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -886,10 +897,10 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -910,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -924,14 +935,14 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
@@ -942,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -962,17 +973,17 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>134</v>
+      <c r="I4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -986,28 +997,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>132</v>
+      <c r="I5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
@@ -1024,28 +1035,28 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>61</v>
@@ -1062,7 +1073,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -1076,14 +1087,14 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>23</v>
@@ -1100,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1114,14 +1125,14 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
@@ -1138,28 +1149,28 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
@@ -1176,28 +1187,28 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>28</v>
@@ -1214,28 +1225,28 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>10</v>
@@ -1252,28 +1263,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>60</v>
@@ -1290,28 +1301,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>37</v>
@@ -1328,28 +1339,28 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>7</v>
@@ -1366,28 +1377,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
@@ -1405,8 +1416,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,8 +1429,8 @@
     <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="61.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="61.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="45.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="53.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="39.5703125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="1"/>
@@ -1436,31 +1447,31 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>95</v>
+      <c r="J1" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1474,31 +1485,31 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1512,31 +1523,31 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1550,28 +1561,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>103</v>
+      <c r="I4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
@@ -1588,28 +1599,28 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>104</v>
+      <c r="I5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>42</v>
@@ -1620,34 +1631,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>107</v>
+      <c r="I6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>42</v>
@@ -1658,34 +1669,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>42</v>
@@ -1696,34 +1707,34 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>113</v>
+      <c r="I8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>42</v>
@@ -1734,34 +1745,34 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>42</v>
@@ -1772,34 +1783,34 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>117</v>
+      <c r="I10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>42</v>
@@ -1816,28 +1827,28 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>38</v>
@@ -1854,28 +1865,28 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>40</v>
@@ -1892,28 +1903,28 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>42</v>
@@ -1930,28 +1941,28 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>44</v>
@@ -1968,31 +1979,31 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>135</v>
+      <c r="I15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2006,28 +2017,28 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="I16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>56</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7659E42-5DE6-4EC9-8093-81C4B0A59892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91A622-AA74-4041-8F99-ADB6AD03E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -289,12 +289,6 @@
     <t>/TRAITEMENT RETOUR OTD N2</t>
   </si>
   <si>
-    <t>/TRAITEMENT_RETOUR_FACT_TIERS/RECLAMATION TIERS</t>
-  </si>
-  <si>
-    <t>/TRAITEMENT RETOUR FACT TIERS/RECLAMATION TIERS</t>
-  </si>
-  <si>
     <t>PEC Dentaires</t>
   </si>
   <si>
@@ -443,6 +437,12 @@
   </si>
   <si>
     <t>/TRAITEMENT RETOUR FACT DENTAIRE</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_TIERS/RECLAMATION TIERS/ALMERYS</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT RETOUR FACT TIERS/RECLAMATION TIERS/ALMERYS</t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -845,16 +845,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -936,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -974,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -997,28 +997,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
@@ -1035,16 +1035,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1149,16 +1149,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -1187,16 +1187,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1301,28 +1301,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>37</v>
@@ -1339,28 +1339,28 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>7</v>
@@ -1377,28 +1377,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
@@ -1416,8 +1416,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,16 +1447,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -1465,13 +1465,13 @@
         <v>63</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1485,16 +1485,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>85</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1523,16 +1523,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1541,13 +1541,13 @@
         <v>85</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1561,16 +1561,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>79</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>80</v>
@@ -1599,16 +1599,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>82</v>
@@ -1631,31 +1631,31 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>82</v>
@@ -1669,31 +1669,31 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>82</v>
@@ -1707,31 +1707,31 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>82</v>
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>82</v>
@@ -1783,31 +1783,31 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>82</v>
@@ -1827,16 +1827,16 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1865,16 +1865,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1997,13 +1997,13 @@
         <v>85</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2017,28 +2017,28 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>56</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91A622-AA74-4041-8F99-ADB6AD03E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EED4282-1198-43DF-8461-35B9612A61CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="145">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -443,6 +443,24 @@
   </si>
   <si>
     <t>/TRAITEMENT RETOUR FACT TIERS/RECLAMATION TIERS/ALMERYS</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_AUDIO/</t>
+  </si>
+  <si>
+    <t>trffactureaudio</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_AUDIO</t>
+  </si>
+  <si>
+    <t>RECLAM_AUDIO</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT RETOUR FACT AUDIO</t>
+  </si>
+  <si>
+    <t>Etat fin de traitement N1</t>
   </si>
 </sst>
 </file>
@@ -811,10 +829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,6 +1422,44 @@
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1416,8 +1472,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1544,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>95</v>
@@ -1526,7 +1582,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>57</v>
@@ -1982,7 +2038,7 @@
         <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>57</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EED4282-1198-43DF-8461-35B9612A61CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC968664-33E2-4D81-9C7D-D3502002C0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>/TRAITEMENT_RETOUR_OPTIQUE</t>
   </si>
   <si>
-    <t>Dentaire</t>
-  </si>
-  <si>
     <t>N2 INDU HTP</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>Etat fin de traitement N1</t>
+  </si>
+  <si>
+    <t>factures_Dentaire</t>
   </si>
 </sst>
 </file>
@@ -831,8 +831,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
@@ -995,13 +995,13 @@
         <v>125</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1030,13 +1030,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>90</v>
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>37</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>7</v>
@@ -1410,13 +1410,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -1439,25 +1439,25 @@
         <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1544,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>95</v>
@@ -1582,7 +1582,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>57</v>
@@ -2038,7 +2038,7 @@
         <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>57</v>
@@ -2053,13 +2053,13 @@
         <v>85</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2088,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>56</v>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC968664-33E2-4D81-9C7D-D3502002C0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286B0CC-C122-4786-BFA2-D3BA2E6CFCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="148">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>factures_Dentaire</t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_DENTAIRE/</t>
+  </si>
+  <si>
+    <t>RECLAM_DENTAIRE</t>
+  </si>
+  <si>
+    <t>trreclamdentaire</t>
   </si>
 </sst>
 </file>
@@ -829,10 +838,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,6 +1469,44 @@
         <v>141</v>
       </c>
     </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1473,7 +1520,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286B0CC-C122-4786-BFA2-D3BA2E6CFCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE66E97B-614A-403D-BC1F-AF6B191D634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -491,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,12 +523,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,7 +849,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,41 +945,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1469,41 +1477,41 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="G17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1520,7 +1528,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingRetourServeur.xlsx
+++ b/ReportingRetourServeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE66E97B-614A-403D-BC1F-AF6B191D634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E07749-57AE-4A7A-AEE9-8BBB6162BC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +510,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -523,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -531,6 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,8 +855,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1044,7 @@
       <c r="E5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1113,7 +1120,7 @@
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
